--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed4/result_data_RandomForest.xlsx
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3031</v>
+        <v>-10.2384</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.96819999999999</v>
+        <v>-12.85469999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.7583</v>
+        <v>-13.1981</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.5244</v>
+        <v>-12.2977</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.75930000000001</v>
+        <v>-11.5117</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.28160000000001</v>
+        <v>-12.54240000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.4855</v>
+        <v>-12.6059</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.94920000000001</v>
+        <v>-10.95210000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.43300000000001</v>
+        <v>-12.58220000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.32580000000001</v>
+        <v>-12.50550000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.33119999999998</v>
+        <v>-13.62639999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.4891</v>
+        <v>-13.55379999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.9116</v>
+        <v>-13.93359999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.1681</v>
+        <v>-11.33959999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.0697</v>
+        <v>-12.3529</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.34360000000001</v>
+        <v>-11.77540000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.2825</v>
+        <v>-12.40499999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.7883</v>
+        <v>-13.91839999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.08930000000001</v>
+        <v>-11.1227</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.28149999999999</v>
+        <v>-13.2802</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
